--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_POR_FRASE_TITULO.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_POR_FRASE_TITULO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\copiaGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\documentacion_git\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>Cuando el usuario ingresa como entrada un archivo HTML para su lectura.</t>
   </si>
   <si>
-    <t>ArchivoBueno</t>
-  </si>
-  <si>
     <t>Archivo HTML</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Ingresar un archivo noHTML</t>
   </si>
   <si>
-    <t>Archivo Bueno</t>
-  </si>
-  <si>
     <t>Archivo Malo</t>
   </si>
   <si>
@@ -338,13 +332,19 @@
   </si>
   <si>
     <t>Archivo con extención HTML</t>
+  </si>
+  <si>
+    <t>Archivo Bueno1</t>
+  </si>
+  <si>
+    <t>ArchivoBueno1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -429,6 +429,14 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF1620F2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -741,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -775,18 +783,57 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,44 +888,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -889,43 +936,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -965,7 +982,7 @@
         <xdr:cNvPr id="4101" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,13 +1486,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1483,11 +1500,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1495,11 +1512,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1507,11 +1524,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1529,11 +1546,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1555,25 +1572,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1595,85 +1612,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="44" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="46"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="39" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1713,12 +1730,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1727,11 +1744,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1741,11 +1758,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1767,11 +1784,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1805,51 +1822,51 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="21">
+      <c r="B39" s="34">
         <v>1</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="40">
         <v>43559</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1867,25 +1884,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F38:G38"/>
@@ -1896,6 +1894,25 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="H39:J40"/>
     <mergeCell ref="F39:G40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1907,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1942,10 +1959,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2000,11 +2017,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2037,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>6</v>
@@ -2052,20 +2069,20 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>48</v>
+      <c r="B10" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2074,11 +2091,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2086,11 +2103,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2099,11 +2116,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2112,20 +2129,20 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2135,11 +2152,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2147,11 +2164,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2161,11 +2178,11 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2175,20 +2192,20 @@
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="D18" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="E18" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="F18" s="62" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>55</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2199,11 +2216,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2213,11 +2230,11 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2227,11 +2244,11 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2241,20 +2258,20 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="F22" s="65" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>69</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2265,11 +2282,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2279,11 +2296,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2293,11 +2310,11 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2307,19 +2324,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="65" t="s">
         <v>43</v>
       </c>
       <c r="G26" s="1"/>
@@ -2331,11 +2348,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2345,11 +2362,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2359,11 +2376,11 @@
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2373,20 +2390,20 @@
     </row>
     <row r="30" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>73</v>
-      </c>
       <c r="F30" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2397,11 +2414,11 @@
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="62"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2705,11 +2722,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
@@ -2724,19 +2749,11 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2749,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2767,12 +2784,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2793,84 +2810,79 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="52">
+      <c r="B6" s="65">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="F6" s="65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="65">
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E8" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="65">
+        <v>2</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="52">
-        <v>2</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="52">
-        <v>2</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F10:F11"/>
@@ -2882,6 +2894,11 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
